--- a/Code/Results/Cases/Case_4_64/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_64/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.18448906076451</v>
+        <v>14.79968816316329</v>
       </c>
       <c r="C2">
-        <v>6.616789337297053</v>
+        <v>8.03515003602395</v>
       </c>
       <c r="D2">
-        <v>7.052578372920886</v>
+        <v>6.012036206773072</v>
       </c>
       <c r="E2">
-        <v>7.906939350625356</v>
+        <v>11.78492940526285</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.106997080409372</v>
+        <v>3.679432670411195</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.71979524162952</v>
+        <v>11.12006857629008</v>
       </c>
       <c r="L2">
-        <v>6.855704078606792</v>
+        <v>9.813582256100769</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.42508569179187</v>
+        <v>20.68709000859546</v>
       </c>
       <c r="O2">
-        <v>19.38824172345655</v>
+        <v>28.22637119563035</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.26643683692365</v>
+        <v>14.5855400208801</v>
       </c>
       <c r="C3">
-        <v>6.540696115612711</v>
+        <v>8.011172676253452</v>
       </c>
       <c r="D3">
-        <v>6.564383589035246</v>
+        <v>5.897979913608379</v>
       </c>
       <c r="E3">
-        <v>7.777433664805161</v>
+        <v>11.79297818127113</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.112678858657071</v>
+        <v>3.681582099668389</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.96823852966416</v>
+        <v>10.9716487272167</v>
       </c>
       <c r="L3">
-        <v>6.654157319063916</v>
+        <v>9.802035278995129</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.64014877053735</v>
+        <v>20.75019747451624</v>
       </c>
       <c r="O3">
-        <v>19.22974313858718</v>
+        <v>28.27621778182953</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.67828983155305</v>
+        <v>14.4558672562244</v>
       </c>
       <c r="C4">
-        <v>6.493521693252124</v>
+        <v>7.996200055437947</v>
       </c>
       <c r="D4">
-        <v>6.26096272420573</v>
+        <v>5.828601884493501</v>
       </c>
       <c r="E4">
-        <v>7.701643589081161</v>
+        <v>11.79999783055597</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.116275751446446</v>
+        <v>3.682972340633484</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.48111321295091</v>
+        <v>10.88184665043957</v>
       </c>
       <c r="L4">
-        <v>6.53110473846046</v>
+        <v>9.796681164518178</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.77528885196114</v>
+        <v>20.79078225540027</v>
       </c>
       <c r="O4">
-        <v>19.14673510443923</v>
+        <v>28.31240374237086</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.43263619663156</v>
+        <v>14.40354837634165</v>
       </c>
       <c r="C5">
-        <v>6.474188365790398</v>
+        <v>7.990036644270222</v>
       </c>
       <c r="D5">
-        <v>6.148380413365907</v>
+        <v>5.80053691995563</v>
       </c>
       <c r="E5">
-        <v>7.671709757807162</v>
+        <v>11.80338111513339</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.117769417795603</v>
+        <v>3.683556655341615</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.27613607846014</v>
+        <v>10.84562961642719</v>
       </c>
       <c r="L5">
-        <v>6.481200850362674</v>
+        <v>9.794937787757194</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.83115688884516</v>
+        <v>20.8077839420037</v>
       </c>
       <c r="O5">
-        <v>19.11641310613805</v>
+        <v>28.32855069502705</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.39149038973261</v>
+        <v>14.3948944606791</v>
       </c>
       <c r="C6">
-        <v>6.470971614642629</v>
+        <v>7.989009502945478</v>
       </c>
       <c r="D6">
-        <v>6.129538345822822</v>
+        <v>5.795890523921611</v>
       </c>
       <c r="E6">
-        <v>7.66679708571608</v>
+        <v>11.80397448280957</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.118019144588635</v>
+        <v>3.683654755906459</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.24170873149779</v>
+        <v>10.83963991366469</v>
       </c>
       <c r="L6">
-        <v>6.472930876897243</v>
+        <v>9.794674836664356</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.84048247249977</v>
+        <v>20.81063506341026</v>
       </c>
       <c r="O6">
-        <v>19.11158695117201</v>
+        <v>28.33131642256817</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.67500080959327</v>
+        <v>14.45515945600063</v>
       </c>
       <c r="C7">
-        <v>6.493261393845791</v>
+        <v>7.996117182987398</v>
       </c>
       <c r="D7">
-        <v>6.259454382039155</v>
+        <v>5.828222494934082</v>
       </c>
       <c r="E7">
-        <v>7.701236022527147</v>
+        <v>11.80004134199421</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.116295781694362</v>
+        <v>3.682980148839173</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.47837502993856</v>
+        <v>10.88135662643634</v>
       </c>
       <c r="L7">
-        <v>6.530430652469253</v>
+        <v>9.796655874955766</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.77603905302665</v>
+        <v>20.79100966954371</v>
       </c>
       <c r="O7">
-        <v>19.1463121107753</v>
+        <v>28.31261583692753</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.87311065188905</v>
+        <v>14.72551377733962</v>
       </c>
       <c r="C8">
-        <v>6.590648962656561</v>
+        <v>8.026935230732779</v>
       </c>
       <c r="D8">
-        <v>6.887708500755596</v>
+        <v>5.972599737882843</v>
       </c>
       <c r="E8">
-        <v>7.861521347628921</v>
+        <v>11.78727361294756</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.10893410879883</v>
+        <v>3.680159199160319</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.46597379015748</v>
+        <v>11.06864428511614</v>
       </c>
       <c r="L8">
-        <v>6.786104208288426</v>
+        <v>9.809241872827563</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.4986104033988</v>
+        <v>20.70846904177367</v>
       </c>
       <c r="O8">
-        <v>19.33056649020466</v>
+        <v>28.24239891136136</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.05069743125483</v>
+        <v>15.26710074976902</v>
       </c>
       <c r="C9">
-        <v>6.777862939853168</v>
+        <v>8.085338691822425</v>
       </c>
       <c r="D9">
-        <v>8.014447826127093</v>
+        <v>6.259040091902812</v>
       </c>
       <c r="E9">
-        <v>8.204710778581756</v>
+        <v>11.77870407321926</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.095324309189883</v>
+        <v>3.675183984725948</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.2000916195069</v>
+        <v>11.44450199709611</v>
       </c>
       <c r="L9">
-        <v>7.290331202409763</v>
+        <v>9.847597250504329</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.97814322667661</v>
+        <v>20.56112135572824</v>
       </c>
       <c r="O9">
-        <v>19.80934242123513</v>
+        <v>28.14906862827453</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.63332905735283</v>
+        <v>15.66799577569386</v>
       </c>
       <c r="C10">
-        <v>6.912938901304896</v>
+        <v>8.126953335988569</v>
       </c>
       <c r="D10">
-        <v>8.764333362386655</v>
+        <v>6.469074813841146</v>
       </c>
       <c r="E10">
-        <v>8.473453201169773</v>
+        <v>11.78241583276241</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.085780833949709</v>
+        <v>3.671864426559354</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.35263493249193</v>
+        <v>11.72326405202772</v>
       </c>
       <c r="L10">
-        <v>7.659275196085605</v>
+        <v>9.883965704153464</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.6087487641703</v>
+        <v>20.46163072798656</v>
       </c>
       <c r="O10">
-        <v>20.23764122865603</v>
+        <v>28.10765361139803</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.31771324853176</v>
+        <v>15.85019826301357</v>
       </c>
       <c r="C11">
-        <v>6.973829412195006</v>
+        <v>8.145591842080817</v>
       </c>
       <c r="D11">
-        <v>9.089058635746003</v>
+        <v>6.564045738772656</v>
       </c>
       <c r="E11">
-        <v>8.599098848723168</v>
+        <v>11.78626725605301</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.081526796916794</v>
+        <v>3.670426404144819</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.85110508215344</v>
+        <v>11.8501020091017</v>
       </c>
       <c r="L11">
-        <v>7.826213762288015</v>
+        <v>9.902251717003697</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.44321171905045</v>
+        <v>20.41825568105113</v>
       </c>
       <c r="O11">
-        <v>20.45005471592364</v>
+        <v>28.09472593012516</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.57183112720189</v>
+        <v>15.91910295599487</v>
       </c>
       <c r="C12">
-        <v>6.996806062379539</v>
+        <v>8.152606657655696</v>
       </c>
       <c r="D12">
-        <v>9.20970797861707</v>
+        <v>6.599887613907389</v>
       </c>
       <c r="E12">
-        <v>8.647147887268579</v>
+        <v>11.78803550672206</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.079927455879012</v>
+        <v>3.669892166334323</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.03619771392816</v>
+        <v>11.89809167442662</v>
       </c>
       <c r="L12">
-        <v>7.889260353942991</v>
+        <v>9.909423025426465</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.38086102483043</v>
+        <v>20.40210027541771</v>
       </c>
       <c r="O12">
-        <v>20.53308892691199</v>
+        <v>28.0906814377504</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.51732543285375</v>
+        <v>15.90426821528996</v>
       </c>
       <c r="C13">
-        <v>6.991861253928318</v>
+        <v>8.151097830709604</v>
       </c>
       <c r="D13">
-        <v>9.183826356544049</v>
+        <v>6.592174428664828</v>
       </c>
       <c r="E13">
-        <v>8.636779047762708</v>
+        <v>11.78764092538361</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.080271404480924</v>
+        <v>3.670006766290291</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.99649701037792</v>
+        <v>11.88775877503585</v>
       </c>
       <c r="L13">
-        <v>7.875690254043387</v>
+        <v>9.907867641106391</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.39427489084423</v>
+        <v>20.4055676497009</v>
       </c>
       <c r="O13">
-        <v>20.51508939754042</v>
+        <v>28.09151463749095</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.33872033826166</v>
+        <v>15.85586930484624</v>
       </c>
       <c r="C14">
-        <v>6.975721347585854</v>
+        <v>8.14616982729045</v>
       </c>
       <c r="D14">
-        <v>9.099030723411069</v>
+        <v>6.566997123107264</v>
       </c>
       <c r="E14">
-        <v>8.603042556210477</v>
+        <v>11.78640652993345</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.08139499218968</v>
+        <v>3.670382245747544</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.86640597642354</v>
+        <v>11.85405122576414</v>
       </c>
       <c r="L14">
-        <v>7.831404248015882</v>
+        <v>9.902836780799019</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.43807553129376</v>
+        <v>20.41692116547915</v>
       </c>
       <c r="O14">
-        <v>20.45683353439657</v>
+        <v>28.09437613012272</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.22866491718248</v>
+        <v>15.82620970142631</v>
       </c>
       <c r="C15">
-        <v>6.965824584279251</v>
+        <v>8.143145624723621</v>
       </c>
       <c r="D15">
-        <v>9.046790459835149</v>
+        <v>6.551558346800933</v>
       </c>
       <c r="E15">
-        <v>8.582438642788125</v>
+        <v>11.78569073261288</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.082084698391326</v>
+        <v>3.670613578888208</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.78624535007625</v>
+        <v>11.83339770619452</v>
       </c>
       <c r="L15">
-        <v>7.804254633812454</v>
+        <v>9.899787259489687</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.4649475008692</v>
+        <v>20.42391062316367</v>
       </c>
       <c r="O15">
-        <v>20.42149048257929</v>
+        <v>28.09623971094146</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.58789321790513</v>
+        <v>15.65607924564564</v>
       </c>
       <c r="C16">
-        <v>6.908948239480536</v>
+        <v>8.125729286496663</v>
       </c>
       <c r="D16">
-        <v>8.742785264021951</v>
+        <v>6.462853303058451</v>
       </c>
       <c r="E16">
-        <v>8.465308657600382</v>
+        <v>11.78220755631216</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.086060519790383</v>
+        <v>3.671959850286609</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.31954291445254</v>
+        <v>11.71497156844226</v>
       </c>
       <c r="L16">
-        <v>7.648343722207867</v>
+        <v>9.882805411665508</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.61961521159168</v>
+        <v>20.46450320094906</v>
       </c>
       <c r="O16">
-        <v>20.2241192887723</v>
+        <v>28.10861750908372</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.18574041600285</v>
+        <v>15.55161837728193</v>
       </c>
       <c r="C17">
-        <v>6.873912774853571</v>
+        <v>8.114969259804589</v>
       </c>
       <c r="D17">
-        <v>8.552116040355651</v>
+        <v>6.40826009720494</v>
       </c>
       <c r="E17">
-        <v>8.394308954245069</v>
+        <v>11.78062390534781</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.088521244772435</v>
+        <v>3.672804163488245</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.02665287015228</v>
+        <v>11.64229560867942</v>
       </c>
       <c r="L17">
-        <v>7.552437032612401</v>
+        <v>9.872831187359782</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.71512202238758</v>
+        <v>20.48988711919369</v>
       </c>
       <c r="O17">
-        <v>20.10759155016112</v>
+        <v>28.11772581453311</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.95108087860496</v>
+        <v>15.49152347594921</v>
       </c>
       <c r="C18">
-        <v>6.853708969333377</v>
+        <v>8.108752943248163</v>
       </c>
       <c r="D18">
-        <v>8.440901783783646</v>
+        <v>6.376807620786777</v>
       </c>
       <c r="E18">
-        <v>8.353792228866427</v>
+        <v>11.7799167012798</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.089944872462854</v>
+        <v>3.673296575953523</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.85575616145739</v>
+        <v>11.60049955722686</v>
       </c>
       <c r="L18">
-        <v>7.497191739280304</v>
+        <v>9.867258463168248</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.77029210293568</v>
+        <v>20.50466464860045</v>
       </c>
       <c r="O18">
-        <v>20.04221847236527</v>
+        <v>28.12352113409922</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.87105144484311</v>
+        <v>15.47117644268829</v>
       </c>
       <c r="C19">
-        <v>6.846859374110566</v>
+        <v>8.106643528885526</v>
       </c>
       <c r="D19">
-        <v>8.40297972527639</v>
+        <v>6.366150654194366</v>
       </c>
       <c r="E19">
-        <v>8.340129572365573</v>
+        <v>11.77971226891838</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.090428340091014</v>
+        <v>3.673464465427836</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.79747406171085</v>
+        <v>11.58635042536343</v>
       </c>
       <c r="L19">
-        <v>7.478473839643324</v>
+        <v>9.865399941308285</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.78901322187256</v>
+        <v>20.5096985634251</v>
       </c>
       <c r="O19">
-        <v>20.02036557525465</v>
+        <v>28.12557887327183</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.2288966824158</v>
+        <v>15.56274012889107</v>
       </c>
       <c r="C20">
-        <v>6.87764778843451</v>
+        <v>8.11611753073235</v>
       </c>
       <c r="D20">
-        <v>8.572572852941644</v>
+        <v>6.414077297414112</v>
       </c>
       <c r="E20">
-        <v>8.40183396743585</v>
+        <v>11.78077141689124</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.088258446001517</v>
+        <v>3.672713582977113</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.05808311107603</v>
+        <v>11.65003187697099</v>
       </c>
       <c r="L20">
-        <v>7.562655296103118</v>
+        <v>9.873875993756863</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.70493080209938</v>
+        <v>20.48716660849247</v>
       </c>
       <c r="O20">
-        <v>20.11982477916522</v>
+        <v>28.11669862122089</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.39131727814288</v>
+        <v>15.87008824655538</v>
       </c>
       <c r="C21">
-        <v>6.980464240211903</v>
+        <v>8.147618482591074</v>
       </c>
       <c r="D21">
-        <v>9.12399980153265</v>
+        <v>6.574395906912953</v>
       </c>
       <c r="E21">
-        <v>8.612939169944147</v>
+        <v>11.78676070461556</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.081064661450827</v>
+        <v>3.67027167893141</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.90471599794845</v>
+        <v>11.86395341931503</v>
       </c>
       <c r="L21">
-        <v>7.8444170105811</v>
+        <v>9.904307799191384</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.42520134540499</v>
+        <v>20.41357904950848</v>
       </c>
       <c r="O21">
-        <v>20.4738736443033</v>
+        <v>28.0935125418273</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.12166498743241</v>
+        <v>16.07039534812819</v>
       </c>
       <c r="C22">
-        <v>7.04718718229011</v>
+        <v>8.167953935174371</v>
       </c>
       <c r="D22">
-        <v>9.470904126852126</v>
+        <v>6.678448285738018</v>
       </c>
       <c r="E22">
-        <v>8.753639517612932</v>
+        <v>11.79248010125596</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.076430038576654</v>
+        <v>3.668735824487499</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.43668921096846</v>
+        <v>12.00350384303308</v>
       </c>
       <c r="L22">
-        <v>8.027562903239883</v>
+        <v>9.925633344816474</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.24432003104538</v>
+        <v>20.36705733011362</v>
       </c>
       <c r="O22">
-        <v>20.72043805080237</v>
+        <v>28.08331911859144</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.73452662750909</v>
+        <v>15.9635608795506</v>
       </c>
       <c r="C23">
-        <v>7.011619388138031</v>
+        <v>8.157123986574726</v>
       </c>
       <c r="D23">
-        <v>9.286974460411395</v>
+        <v>6.622992241672941</v>
       </c>
       <c r="E23">
-        <v>8.678300803763536</v>
+        <v>11.78926284314009</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.078897845043939</v>
+        <v>3.66955005956491</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.15470202554925</v>
+        <v>11.92906148941495</v>
       </c>
       <c r="L23">
-        <v>7.929917856459236</v>
+        <v>9.914121334370083</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.34069098113792</v>
+        <v>20.39174336746699</v>
       </c>
       <c r="O23">
-        <v>20.58743115102095</v>
+        <v>28.08830554117468</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.20939650596494</v>
+        <v>15.55771210114986</v>
       </c>
       <c r="C24">
-        <v>6.87595938008775</v>
+        <v>8.115598491541999</v>
       </c>
       <c r="D24">
-        <v>8.563329302205135</v>
+        <v>6.411447544172602</v>
       </c>
       <c r="E24">
-        <v>8.398430967061005</v>
+        <v>11.78070409371161</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.088377229455386</v>
+        <v>3.672754512600295</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.04388132173019</v>
+        <v>11.64653434920424</v>
       </c>
       <c r="L24">
-        <v>7.558035950111392</v>
+        <v>9.873403133176806</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.70953743499598</v>
+        <v>20.48839597819034</v>
       </c>
       <c r="O24">
-        <v>20.11428909488011</v>
+        <v>28.11716127460713</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.46343455964823</v>
+        <v>15.11977723508764</v>
       </c>
       <c r="C25">
-        <v>6.727639941265219</v>
+        <v>8.069762202302762</v>
       </c>
       <c r="D25">
-        <v>7.723485843681482</v>
+        <v>6.181451368919016</v>
       </c>
       <c r="E25">
-        <v>8.108878532084349</v>
+        <v>11.77926189758929</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.098922445300315</v>
+        <v>3.676470693830506</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.752469525505</v>
+        <v>11.34217440996818</v>
       </c>
       <c r="L25">
-        <v>7.153974564513008</v>
+        <v>9.835771291757267</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.11655946697034</v>
+        <v>20.59943754171936</v>
       </c>
       <c r="O25">
-        <v>19.66671447090172</v>
+        <v>28.16955483253426</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_64/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_64/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.79968816316329</v>
+        <v>15.18448906076451</v>
       </c>
       <c r="C2">
-        <v>8.03515003602395</v>
+        <v>6.616789337297046</v>
       </c>
       <c r="D2">
-        <v>6.012036206773072</v>
+        <v>7.052578372920931</v>
       </c>
       <c r="E2">
-        <v>11.78492940526285</v>
+        <v>7.90693935062524</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.679432670411195</v>
+        <v>2.106997080409103</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.12006857629008</v>
+        <v>11.71979524162959</v>
       </c>
       <c r="L2">
-        <v>9.813582256100769</v>
+        <v>6.855704078606736</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.68709000859546</v>
+        <v>13.42508569179175</v>
       </c>
       <c r="O2">
-        <v>28.22637119563035</v>
+        <v>19.38824172345632</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.5855400208801</v>
+        <v>14.26643683692365</v>
       </c>
       <c r="C3">
-        <v>8.011172676253452</v>
+        <v>6.540696115612572</v>
       </c>
       <c r="D3">
-        <v>5.897979913608379</v>
+        <v>6.564383589035345</v>
       </c>
       <c r="E3">
-        <v>11.79297818127113</v>
+        <v>7.777433664805078</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.681582099668389</v>
+        <v>2.112678858656803</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.9716487272167</v>
+        <v>10.96823852966422</v>
       </c>
       <c r="L3">
-        <v>9.802035278995129</v>
+        <v>6.654157319063875</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.75019747451624</v>
+        <v>13.64014877053725</v>
       </c>
       <c r="O3">
-        <v>28.27621778182953</v>
+        <v>19.22974313858706</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.4558672562244</v>
+        <v>13.67828983155311</v>
       </c>
       <c r="C4">
-        <v>7.996200055437947</v>
+        <v>6.493521693251981</v>
       </c>
       <c r="D4">
-        <v>5.828601884493501</v>
+        <v>6.260962724205746</v>
       </c>
       <c r="E4">
-        <v>11.79999783055597</v>
+        <v>7.70164358908116</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.682972340633484</v>
+        <v>2.116275751446448</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.88184665043957</v>
+        <v>10.48111321295085</v>
       </c>
       <c r="L4">
-        <v>9.796681164518178</v>
+        <v>6.531104738460523</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.79078225540027</v>
+        <v>13.77528885196118</v>
       </c>
       <c r="O4">
-        <v>28.31240374237086</v>
+        <v>19.1467351044394</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.40354837634165</v>
+        <v>13.43263619663156</v>
       </c>
       <c r="C5">
-        <v>7.990036644270222</v>
+        <v>6.474188365790131</v>
       </c>
       <c r="D5">
-        <v>5.80053691995563</v>
+        <v>6.148380413365871</v>
       </c>
       <c r="E5">
-        <v>11.80338111513339</v>
+        <v>7.671709757807117</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.683556655341615</v>
+        <v>2.117769417795603</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.84562961642719</v>
+        <v>10.27613607846012</v>
       </c>
       <c r="L5">
-        <v>9.794937787757194</v>
+        <v>6.481200850362688</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.8077839420037</v>
+        <v>13.83115688884522</v>
       </c>
       <c r="O5">
-        <v>28.32855069502705</v>
+        <v>19.11641310613819</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.3948944606791</v>
+        <v>13.39149038973257</v>
       </c>
       <c r="C6">
-        <v>7.989009502945478</v>
+        <v>6.470971614642767</v>
       </c>
       <c r="D6">
-        <v>5.795890523921611</v>
+        <v>6.129538345822831</v>
       </c>
       <c r="E6">
-        <v>11.80397448280957</v>
+        <v>7.666797085716285</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.683654755906459</v>
+        <v>2.118019144589035</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.83963991366469</v>
+        <v>10.24170873149789</v>
       </c>
       <c r="L6">
-        <v>9.794674836664356</v>
+        <v>6.472930876897302</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.81063506341026</v>
+        <v>13.8404824724997</v>
       </c>
       <c r="O6">
-        <v>28.33131642256817</v>
+        <v>19.11158695117183</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.45515945600063</v>
+        <v>13.67500080959323</v>
       </c>
       <c r="C7">
-        <v>7.996117182987398</v>
+        <v>6.493261393845802</v>
       </c>
       <c r="D7">
-        <v>5.828222494934082</v>
+        <v>6.259454382039172</v>
       </c>
       <c r="E7">
-        <v>11.80004134199421</v>
+        <v>7.701236022527258</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.682980148839173</v>
+        <v>2.116295781694361</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.88135662643634</v>
+        <v>10.4783750299386</v>
       </c>
       <c r="L7">
-        <v>9.796655874955766</v>
+        <v>6.530430652469277</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.79100966954371</v>
+        <v>13.77603905302659</v>
       </c>
       <c r="O7">
-        <v>28.31261583692753</v>
+        <v>19.14631211077517</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.72551377733962</v>
+        <v>14.87311065188905</v>
       </c>
       <c r="C8">
-        <v>8.026935230732779</v>
+        <v>6.59064896265643</v>
       </c>
       <c r="D8">
-        <v>5.972599737882843</v>
+        <v>6.887708500755598</v>
       </c>
       <c r="E8">
-        <v>11.78727361294756</v>
+        <v>7.861521347628801</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.680159199160319</v>
+        <v>2.108934108798564</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.06864428511614</v>
+        <v>11.46597379015752</v>
       </c>
       <c r="L8">
-        <v>9.809241872827563</v>
+        <v>6.786104208288359</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.70846904177367</v>
+        <v>13.49861040339876</v>
       </c>
       <c r="O8">
-        <v>28.24239891136136</v>
+        <v>19.33056649020461</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.26710074976902</v>
+        <v>17.05069743125479</v>
       </c>
       <c r="C9">
-        <v>8.085338691822425</v>
+        <v>6.777862939853284</v>
       </c>
       <c r="D9">
-        <v>6.259040091902812</v>
+        <v>8.014447826127057</v>
       </c>
       <c r="E9">
-        <v>11.77870407321926</v>
+        <v>8.204710778581791</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.675183984725948</v>
+        <v>2.095324309189615</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.44450199709611</v>
+        <v>13.20009161950685</v>
       </c>
       <c r="L9">
-        <v>9.847597250504329</v>
+        <v>7.290331202409754</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.56112135572824</v>
+        <v>12.97814322667664</v>
       </c>
       <c r="O9">
-        <v>28.14906862827453</v>
+        <v>19.80934242123518</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.66799577569386</v>
+        <v>18.63332905735282</v>
       </c>
       <c r="C10">
-        <v>8.126953335988569</v>
+        <v>6.912938901304891</v>
       </c>
       <c r="D10">
-        <v>6.469074813841146</v>
+        <v>8.764333362386633</v>
       </c>
       <c r="E10">
-        <v>11.78241583276241</v>
+        <v>8.47345320116974</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.671864426559354</v>
+        <v>2.085780833949976</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.72326405202772</v>
+        <v>14.35263493249194</v>
       </c>
       <c r="L10">
-        <v>9.883965704153464</v>
+        <v>7.659275196085553</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.46163072798656</v>
+        <v>12.60874876417027</v>
       </c>
       <c r="O10">
-        <v>28.10765361139803</v>
+        <v>20.23764122865597</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.85019826301357</v>
+        <v>19.31771324853172</v>
       </c>
       <c r="C11">
-        <v>8.145591842080817</v>
+        <v>6.973829412195137</v>
       </c>
       <c r="D11">
-        <v>6.564045738772656</v>
+        <v>9.089058635746074</v>
       </c>
       <c r="E11">
-        <v>11.78626725605301</v>
+        <v>8.599098848723179</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.670426404144819</v>
+        <v>2.081526796916526</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.8501020091017</v>
+        <v>14.85110508215343</v>
       </c>
       <c r="L11">
-        <v>9.902251717003697</v>
+        <v>7.826213762288001</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.41825568105113</v>
+        <v>12.44321171905042</v>
       </c>
       <c r="O11">
-        <v>28.09472593012516</v>
+        <v>20.45005471592365</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.91910295599487</v>
+        <v>19.57183112720192</v>
       </c>
       <c r="C12">
-        <v>8.152606657655696</v>
+        <v>6.996806062379406</v>
       </c>
       <c r="D12">
-        <v>6.599887613907389</v>
+        <v>9.209707978617105</v>
       </c>
       <c r="E12">
-        <v>11.78803550672206</v>
+        <v>8.647147887268519</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.669892166334323</v>
+        <v>2.079927455879011</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.89809167442662</v>
+        <v>15.03619771392819</v>
       </c>
       <c r="L12">
-        <v>9.909423025426465</v>
+        <v>7.889260353942991</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.40210027541771</v>
+        <v>12.38086102483049</v>
       </c>
       <c r="O12">
-        <v>28.0906814377504</v>
+        <v>20.53308892691208</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.90426821528996</v>
+        <v>19.51732543285367</v>
       </c>
       <c r="C13">
-        <v>8.151097830709604</v>
+        <v>6.991861253928334</v>
       </c>
       <c r="D13">
-        <v>6.592174428664828</v>
+        <v>9.183826356544049</v>
       </c>
       <c r="E13">
-        <v>11.78764092538361</v>
+        <v>8.636779047762703</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.670006766290291</v>
+        <v>2.08027140448106</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.88775877503585</v>
+        <v>14.99649701037787</v>
       </c>
       <c r="L13">
-        <v>9.907867641106391</v>
+        <v>7.875690254043367</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.4055676497009</v>
+        <v>12.3942748908443</v>
       </c>
       <c r="O13">
-        <v>28.09151463749095</v>
+        <v>20.51508939754051</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.85586930484624</v>
+        <v>19.33872033826166</v>
       </c>
       <c r="C14">
-        <v>8.14616982729045</v>
+        <v>6.975721347585854</v>
       </c>
       <c r="D14">
-        <v>6.566997123107264</v>
+        <v>9.09903072341109</v>
       </c>
       <c r="E14">
-        <v>11.78640652993345</v>
+        <v>8.603042556210418</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.670382245747544</v>
+        <v>2.081394992189814</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.85405122576414</v>
+        <v>14.86640597642355</v>
       </c>
       <c r="L14">
-        <v>9.902836780799019</v>
+        <v>7.831404248015886</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.41692116547915</v>
+        <v>12.4380755312937</v>
       </c>
       <c r="O14">
-        <v>28.09437613012272</v>
+        <v>20.45683353439651</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.82620970142631</v>
+        <v>19.22866491718252</v>
       </c>
       <c r="C15">
-        <v>8.143145624723621</v>
+        <v>6.965824584279262</v>
       </c>
       <c r="D15">
-        <v>6.551558346800933</v>
+        <v>9.04679045983508</v>
       </c>
       <c r="E15">
-        <v>11.78569073261288</v>
+        <v>8.582438642788025</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.670613578888208</v>
+        <v>2.082084698391325</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.83339770619452</v>
+        <v>14.7862453500763</v>
       </c>
       <c r="L15">
-        <v>9.899787259489687</v>
+        <v>7.804254633812438</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.42391062316367</v>
+        <v>12.46494750086903</v>
       </c>
       <c r="O15">
-        <v>28.09623971094146</v>
+        <v>20.42149048257913</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.65607924564564</v>
+        <v>18.58789321790515</v>
       </c>
       <c r="C16">
-        <v>8.125729286496663</v>
+        <v>6.908948239480783</v>
       </c>
       <c r="D16">
-        <v>6.462853303058451</v>
+        <v>8.742785264022009</v>
       </c>
       <c r="E16">
-        <v>11.78220755631216</v>
+        <v>8.465308657600385</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.671959850286609</v>
+        <v>2.086060519790249</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.71497156844226</v>
+        <v>14.31954291445261</v>
       </c>
       <c r="L16">
-        <v>9.882805411665508</v>
+        <v>7.648343722207837</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.46450320094906</v>
+        <v>12.61961521159162</v>
       </c>
       <c r="O16">
-        <v>28.10861750908372</v>
+        <v>20.22411928877218</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.55161837728193</v>
+        <v>18.18574041600285</v>
       </c>
       <c r="C17">
-        <v>8.114969259804589</v>
+        <v>6.873912774853566</v>
       </c>
       <c r="D17">
-        <v>6.40826009720494</v>
+        <v>8.552116040355717</v>
       </c>
       <c r="E17">
-        <v>11.78062390534781</v>
+        <v>8.394308954245105</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.672804163488245</v>
+        <v>2.088521244772437</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.64229560867942</v>
+        <v>14.02665287015228</v>
       </c>
       <c r="L17">
-        <v>9.872831187359782</v>
+        <v>7.552437032612412</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.48988711919369</v>
+        <v>12.71512202238758</v>
       </c>
       <c r="O17">
-        <v>28.11772581453311</v>
+        <v>20.10759155016111</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.49152347594921</v>
+        <v>17.95108087860494</v>
       </c>
       <c r="C18">
-        <v>8.108752943248163</v>
+        <v>6.853708969333237</v>
       </c>
       <c r="D18">
-        <v>6.376807620786777</v>
+        <v>8.440901783783701</v>
       </c>
       <c r="E18">
-        <v>11.7799167012798</v>
+        <v>8.353792228866471</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.673296575953523</v>
+        <v>2.089944872462588</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.60049955722686</v>
+        <v>13.85575616145734</v>
       </c>
       <c r="L18">
-        <v>9.867258463168248</v>
+        <v>7.49719173928036</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.50466464860045</v>
+        <v>12.77029210293568</v>
       </c>
       <c r="O18">
-        <v>28.12352113409922</v>
+        <v>20.04221847236528</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.47117644268829</v>
+        <v>17.87105144484313</v>
       </c>
       <c r="C19">
-        <v>8.106643528885526</v>
+        <v>6.846859374110445</v>
       </c>
       <c r="D19">
-        <v>6.366150654194366</v>
+        <v>8.402979725276397</v>
       </c>
       <c r="E19">
-        <v>11.77971226891838</v>
+        <v>8.340129572365536</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.673464465427836</v>
+        <v>2.090428340091013</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.58635042536343</v>
+        <v>13.79747406171086</v>
       </c>
       <c r="L19">
-        <v>9.865399941308285</v>
+        <v>7.478473839643303</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.5096985634251</v>
+        <v>12.78901322187253</v>
       </c>
       <c r="O19">
-        <v>28.12557887327183</v>
+        <v>20.02036557525462</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.56274012889107</v>
+        <v>18.22889668241579</v>
       </c>
       <c r="C20">
-        <v>8.11611753073235</v>
+        <v>6.877647788434753</v>
       </c>
       <c r="D20">
-        <v>6.414077297414112</v>
+        <v>8.572572852941621</v>
       </c>
       <c r="E20">
-        <v>11.78077141689124</v>
+        <v>8.401833967435756</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.672713582977113</v>
+        <v>2.088258446001786</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.65003187697099</v>
+        <v>14.05808311107604</v>
       </c>
       <c r="L20">
-        <v>9.873875993756863</v>
+        <v>7.562655296103074</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.48716660849247</v>
+        <v>12.70493080209932</v>
       </c>
       <c r="O20">
-        <v>28.11669862122089</v>
+        <v>20.11982477916517</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.87008824655538</v>
+        <v>19.39131727814288</v>
       </c>
       <c r="C21">
-        <v>8.147618482591074</v>
+        <v>6.980464240212157</v>
       </c>
       <c r="D21">
-        <v>6.574395906912953</v>
+        <v>9.123999801532612</v>
       </c>
       <c r="E21">
-        <v>11.78676070461556</v>
+        <v>8.612939169944202</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.67027167893141</v>
+        <v>2.081064661451092</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.86395341931503</v>
+        <v>14.90471599794848</v>
       </c>
       <c r="L21">
-        <v>9.904307799191384</v>
+        <v>7.844417010581088</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.41357904950848</v>
+        <v>12.42520134540489</v>
       </c>
       <c r="O21">
-        <v>28.0935125418273</v>
+        <v>20.4738736443032</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.07039534812819</v>
+        <v>20.12166498743247</v>
       </c>
       <c r="C22">
-        <v>8.167953935174371</v>
+        <v>7.047187182289597</v>
       </c>
       <c r="D22">
-        <v>6.678448285738018</v>
+        <v>9.47090412685224</v>
       </c>
       <c r="E22">
-        <v>11.79248010125596</v>
+        <v>8.75363951761285</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.668735824487499</v>
+        <v>2.076430038576389</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.00350384303308</v>
+        <v>15.43668921096844</v>
       </c>
       <c r="L22">
-        <v>9.925633344816474</v>
+        <v>8.02756290323987</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.36705733011362</v>
+        <v>12.24432003104535</v>
       </c>
       <c r="O22">
-        <v>28.08331911859144</v>
+        <v>20.7204380508024</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.9635608795506</v>
+        <v>19.73452662750903</v>
       </c>
       <c r="C23">
-        <v>8.157123986574726</v>
+        <v>7.011619388138146</v>
       </c>
       <c r="D23">
-        <v>6.622992241672941</v>
+        <v>9.286974460411326</v>
       </c>
       <c r="E23">
-        <v>11.78926284314009</v>
+        <v>8.678300803763502</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.66955005956491</v>
+        <v>2.078897845043938</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.92906148941495</v>
+        <v>15.15470202554919</v>
       </c>
       <c r="L23">
-        <v>9.914121334370083</v>
+        <v>7.929917856459229</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.39174336746699</v>
+        <v>12.34069098113802</v>
       </c>
       <c r="O23">
-        <v>28.08830554117468</v>
+        <v>20.58743115102105</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.55771210114986</v>
+        <v>18.20939650596485</v>
       </c>
       <c r="C24">
-        <v>8.115598491541999</v>
+        <v>6.875959380087751</v>
       </c>
       <c r="D24">
-        <v>6.411447544172602</v>
+        <v>8.563329302205132</v>
       </c>
       <c r="E24">
-        <v>11.78070409371161</v>
+        <v>8.398430967060964</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.672754512600295</v>
+        <v>2.088377229455386</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.64653434920424</v>
+        <v>14.0438813217301</v>
       </c>
       <c r="L24">
-        <v>9.873403133176806</v>
+        <v>7.558035950111392</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.48839597819034</v>
+        <v>12.70953743499611</v>
       </c>
       <c r="O24">
-        <v>28.11716127460713</v>
+        <v>20.11428909488026</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.11977723508764</v>
+        <v>16.46343455964822</v>
       </c>
       <c r="C25">
-        <v>8.069762202302762</v>
+        <v>6.727639941265348</v>
       </c>
       <c r="D25">
-        <v>6.181451368919016</v>
+        <v>7.723485843681472</v>
       </c>
       <c r="E25">
-        <v>11.77926189758929</v>
+        <v>8.108878532084471</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.676470693830506</v>
+        <v>2.098922445300316</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.34217440996818</v>
+        <v>12.75246952550501</v>
       </c>
       <c r="L25">
-        <v>9.835771291757267</v>
+        <v>7.153974564513057</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.59943754171936</v>
+        <v>13.11655946697034</v>
       </c>
       <c r="O25">
-        <v>28.16955483253426</v>
+        <v>19.66671447090168</v>
       </c>
     </row>
   </sheetData>
